--- a/品質管理/検索結果.xlsx
+++ b/品質管理/検索結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03ABFF1-E2C1-479E-BF24-590A1D1006CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30E3249-CD02-4FAD-9BD0-0235E355C8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2BF08910-8B89-4105-A56B-244EF4DCDE29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2BF08910-8B89-4105-A56B-244EF4DCDE29}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>※行が増えたり項目が増えると「チェックボックス」がずれるので、最後に追加する。</t>
     <phoneticPr fontId="1"/>
@@ -275,6 +275,10 @@
     <rPh sb="37" eb="39">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -282,7 +286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +313,15 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -359,7 +372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,9 +381,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -384,10 +394,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,7 +716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5B971F-A2D6-4851-855D-04C7F25B849E}">
   <dimension ref="B4:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -734,8 +746,10 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -743,8 +757,10 @@
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -752,8 +768,10 @@
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -761,8 +779,10 @@
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -770,8 +790,10 @@
       <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -779,8 +801,10 @@
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -788,8 +812,10 @@
       <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -797,8 +823,10 @@
       <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -806,8 +834,10 @@
       <c r="B14" s="2">
         <v>9</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -815,8 +845,10 @@
       <c r="B15" s="2">
         <v>10</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -824,8 +856,10 @@
       <c r="B16" s="2">
         <v>11</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -833,8 +867,10 @@
       <c r="B17" s="2">
         <v>12</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -842,19 +878,22 @@
       <c r="B18" s="2">
         <v>13</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -862,7 +901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED60C70A-EC03-4689-BC22-D2742D278C89}">
   <dimension ref="B4:D21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -887,90 +928,104 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>3</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>4</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>5</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>6</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>7</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="18" spans="4:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="4:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/品質管理/検索結果.xlsx
+++ b/品質管理/検索結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30E3249-CD02-4FAD-9BD0-0235E355C8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AAFAC4-D8CF-4B71-B040-F90DAD657C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2BF08910-8B89-4105-A56B-244EF4DCDE29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2BF08910-8B89-4105-A56B-244EF4DCDE29}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>※行が増えたり項目が増えると「チェックボックス」がずれるので、最後に追加する。</t>
     <phoneticPr fontId="1"/>
@@ -716,9 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5B971F-A2D6-4851-855D-04C7F25B849E}">
   <dimension ref="B4:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -901,9 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED60C70A-EC03-4689-BC22-D2742D278C89}">
   <dimension ref="B4:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1009,25 +1005,17 @@
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="18" spans="4:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D21" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/品質管理/検索結果.xlsx
+++ b/品質管理/検索結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AAFAC4-D8CF-4B71-B040-F90DAD657C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DABCE96-F2A3-484C-9C67-4F2165B6DFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2BF08910-8B89-4105-A56B-244EF4DCDE29}"/>
+    <workbookView xWindow="1536" yWindow="1392" windowWidth="10584" windowHeight="11568" xr2:uid="{2BF08910-8B89-4105-A56B-244EF4DCDE29}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>※行が増えたり項目が増えると「チェックボックス」がずれるので、最後に追加する。</t>
     <phoneticPr fontId="1"/>
@@ -279,6 +279,14 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック
+（2回目）</t>
+    <rPh sb="7" eb="9">
+      <t>カイメ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -286,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +330,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -372,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,6 +416,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,179 +734,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5B971F-A2D6-4851-855D-04C7F25B849E}">
-  <dimension ref="B4:D19"/>
+  <dimension ref="B4:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="55.75" customWidth="1"/>
+    <col min="3" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="55.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="24" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" ht="32.4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="2">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" ht="36" x14ac:dyDescent="0.45">
       <c r="B16" s="2">
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="2">
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="2">
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -901,18 +952,18 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="43.25" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="43.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="24" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -923,7 +974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -934,7 +985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -945,7 +996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -956,7 +1007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -967,7 +1018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -978,7 +1029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B11" s="7">
         <v>6</v>
       </c>
@@ -989,7 +1040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B12" s="7">
         <v>7</v>
       </c>
@@ -1000,21 +1051,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D21" s="6"/>
     </row>
   </sheetData>

--- a/品質管理/検索結果.xlsx
+++ b/品質管理/検索結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DABCE96-F2A3-484C-9C67-4F2165B6DFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE6322B-FE8E-497F-9D37-B0FDD0696EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1392" windowWidth="10584" windowHeight="11568" xr2:uid="{2BF08910-8B89-4105-A56B-244EF4DCDE29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2BF08910-8B89-4105-A56B-244EF4DCDE29}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>※行が増えたり項目が増えると「チェックボックス」がずれるので、最後に追加する。</t>
     <phoneticPr fontId="1"/>
@@ -285,6 +285,13 @@
     <t>チェック
 （2回目）</t>
     <rPh sb="7" eb="9">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック(2回目)</t>
+    <rPh sb="6" eb="8">
       <t>カイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -736,22 +743,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5B971F-A2D6-4851-855D-04C7F25B849E}">
   <dimension ref="B4:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="55.69921875" customWidth="1"/>
+    <col min="3" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="55.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" ht="33" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -765,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -779,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -793,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -807,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -821,7 +828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -835,7 +842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -849,91 +856,105 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="2">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="2">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="2">
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="2">
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="36" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B16" s="2">
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="2">
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="2">
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -948,22 +969,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED60C70A-EC03-4689-BC22-D2742D278C89}">
-  <dimension ref="B4:D21"/>
+  <dimension ref="B4:E21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
-    <col min="4" max="4" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" ht="24" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -971,105 +995,131 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B7" s="7">
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B8" s="7">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" s="7">
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B10" s="7">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B11" s="7">
         <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B12" s="7">
         <v>7</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D21" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E21" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>